--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YDombrovskij\Desktop\SCRUM_master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YDombrovskij\Desktop\lada\Scrum_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D195305-35C6-4D9C-BACB-24AD9FFD76F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57349C0-C183-48E1-BF23-773DB86CC0A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
